--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58092B80-CA56-48CF-8DDD-0CB9D621AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD6A0C-3ABF-4CF5-A77B-42E9C76F17FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
+    <sheet name="UnitUpgrade" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +113,63 @@
   </si>
   <si>
     <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{StatType:int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Additional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage:20
+Speed: 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +190,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -158,9 +225,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,4 +728,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0549A72-A7A1-47E8-B0A6-7BF5FEAEEB55}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD6A0C-3ABF-4CF5-A77B-42E9C76F17FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3476E00B-FEB4-4679-BBE6-2CB6C2F3AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
     <sheet name="UnitUpgrade" sheetId="5" r:id="rId2"/>
+    <sheet name="Skill" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +171,61 @@
   <si>
     <t>Damage:20
 Speed: 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>*int</t>
+  </si>
+  <si>
+    <t>$Unit</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>UPGRADE_1</t>
+  </si>
+  <si>
+    <t>UPGRADE_2</t>
+  </si>
+  <si>
+    <t>UPGRADE_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,20 +610,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,16 +642,22 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -610,16 +674,22 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -636,16 +706,22 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -662,16 +738,22 @@
         <v>10</v>
       </c>
       <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -688,16 +770,22 @@
         <v>10</v>
       </c>
       <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -714,13 +802,19 @@
         <v>10</v>
       </c>
       <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>17</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0549A72-A7A1-47E8-B0A6-7BF5FEAEEB55}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -835,4 +929,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED808B7-D0D6-4ACE-88B7-129DEFDF7E82}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GameProjects\KGCrash\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3476E00B-FEB4-4679-BBE6-2CB6C2F3AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30720A95-78E9-4E99-AF26-2110393129A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="2025" yWindow="1110" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
     <sheet name="UnitUpgrade" sheetId="5" r:id="rId2"/>
     <sheet name="Skill" sheetId="6" r:id="rId3"/>
+    <sheet name="Projectile" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +227,10 @@
   </si>
   <si>
     <t>UPGRADE_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Targeting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +618,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED808B7-D0D6-4ACE-88B7-129DEFDF7E82}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1038,4 +1043,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3499CA7-C0C0-49AE-B576-80FEEDB8A9A2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GameProjects\KGCrash\crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30720A95-78E9-4E99-AF26-2110393129A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC64FCF-1269-43A2-9270-4060E6BDE724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1110" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
-    <sheet name="UnitUpgrade" sheetId="5" r:id="rId2"/>
+    <sheet name="UnitUpgradeAbility" sheetId="5" r:id="rId2"/>
     <sheet name="Skill" sheetId="6" r:id="rId3"/>
     <sheet name="Projectile" sheetId="7" r:id="rId4"/>
+    <sheet name="UnitUpgradeCost" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +232,34 @@
   </si>
   <si>
     <t>Targeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +285,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -286,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,7 +874,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1049,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3499CA7-C0C0-49AE-B576-80FEEDB8A9A2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1104,4 +1144,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220ED6E0-30BD-4D56-950C-986B1C9E2B09}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC64FCF-1269-43A2-9270-4060E6BDE724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86ECCA-2E72-4D7C-8EDE-B82E8D8B4AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,22 @@
   </si>
   <si>
     <t>UPGRADE_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,7 +686,7 @@
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,8 +717,14 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -733,8 +755,14 @@
       <c r="J2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -765,8 +793,14 @@
       <c r="J3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -797,8 +831,14 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>13500</v>
+      </c>
+      <c r="L4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -829,8 +869,14 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>13500</v>
+      </c>
+      <c r="L5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -860,6 +906,12 @@
       </c>
       <c r="J6" t="b">
         <v>1</v>
+      </c>
+      <c r="K6">
+        <v>13500</v>
+      </c>
+      <c r="L6">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220ED6E0-30BD-4D56-950C-986B1C9E2B09}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86ECCA-2E72-4D7C-8EDE-B82E8D8B4AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E2DB2-3253-4521-8530-6FB9618E24DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flyable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,7 +698,7 @@
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +735,11 @@
       <c r="L1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -761,8 +776,11 @@
       <c r="L2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -799,8 +817,11 @@
       <c r="L3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -837,8 +858,11 @@
       <c r="L4">
         <v>12000</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -875,8 +899,11 @@
       <c r="L5">
         <v>12000</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -912,6 +939,9 @@
       </c>
       <c r="L6">
         <v>12000</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E2DB2-3253-4521-8530-6FB9618E24DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE87AD34-A7A4-4674-8980-129CBA75987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,10 @@
   </si>
   <si>
     <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillScore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,7 +702,7 @@
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +742,11 @@
       <c r="M1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -779,8 +786,11 @@
       <c r="M2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -820,8 +830,11 @@
       <c r="M3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -861,8 +874,11 @@
       <c r="M4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -902,8 +918,11 @@
       <c r="M5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -942,6 +961,9 @@
       </c>
       <c r="M6" t="b">
         <v>1</v>
+      </c>
+      <c r="N6">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE87AD34-A7A4-4674-8980-129CBA75987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DFBB1B-4D58-47F0-B6D7-E711DFD935B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,6 +963,50 @@
         <v>1</v>
       </c>
       <c r="N6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>13500</v>
+      </c>
+      <c r="L7">
+        <v>12000</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>10000</v>
       </c>
     </row>

--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DFBB1B-4D58-47F0-B6D7-E711DFD935B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF513EBA-FA1D-44A0-B416-2422241F086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,10 @@
   </si>
   <si>
     <t>KillScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisibleRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,22 +691,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,37 +720,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -763,34 +770,37 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
       </c>
       <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
         <v>65</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -807,34 +817,37 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
       </c>
       <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
         <v>66</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -848,37 +861,40 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="b">
+      <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>13500</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>12000</v>
       </c>
-      <c r="M4" t="b">
+      <c r="N4" t="b">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -892,37 +908,40 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="b">
+      <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>13500</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>12000</v>
       </c>
-      <c r="M5" t="b">
+      <c r="N5" t="b">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -936,37 +955,40 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="b">
+      <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>13500</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>12000</v>
       </c>
-      <c r="M6" t="b">
+      <c r="N6" t="b">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -980,33 +1002,36 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="b">
+      <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>13500</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>12000</v>
       </c>
-      <c r="M7" t="b">
+      <c r="N7" t="b">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>10000</v>
       </c>
     </row>

--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GameProjects\KGCrash\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF513EBA-FA1D-44A0-B416-2422241F086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843F4C7-BE76-4455-9A8E-C1AAC2BBA8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="6615" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>VisibleRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,7 +718,7 @@
     <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,8 +764,11 @@
       <c r="O1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -799,8 +814,11 @@
       <c r="O2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -846,8 +864,11 @@
       <c r="O3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -893,8 +914,11 @@
       <c r="O4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -940,8 +964,11 @@
       <c r="O5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -987,8 +1014,11 @@
       <c r="O6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1033,6 +1063,9 @@
       </c>
       <c r="O7">
         <v>10000</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GameProjects\KGCrash\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843F4C7-BE76-4455-9A8E-C1AAC2BBA8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6323C5-0255-48D7-BE15-0E723B4DF650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6615" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,21 @@
   </si>
   <si>
     <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>Projectile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,7 +733,7 @@
     <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,8 +782,11 @@
       <c r="P1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -817,8 +835,11 @@
       <c r="P2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -867,8 +888,11 @@
       <c r="P3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -917,8 +941,11 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -967,8 +994,11 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1017,8 +1047,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1066,6 +1099,9 @@
       </c>
       <c r="P7">
         <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GameProjects\KGCrash\crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6323C5-0255-48D7-BE15-0E723B4DF650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F9247-8CD6-4304-8F85-366B58E3E2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
     <sheet name="UnitUpgradeAbility" sheetId="5" r:id="rId2"/>
-    <sheet name="Skill" sheetId="6" r:id="rId3"/>
-    <sheet name="Projectile" sheetId="7" r:id="rId4"/>
-    <sheet name="UnitUpgradeCost" sheetId="8" r:id="rId5"/>
+    <sheet name="UnitUpgradeSpawn" sheetId="9" r:id="rId3"/>
+    <sheet name="Skill" sheetId="6" r:id="rId4"/>
+    <sheet name="Projectile" sheetId="7" r:id="rId5"/>
+    <sheet name="UnitUpgradeCost" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UPGRADE_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,6 +320,26 @@
   </si>
   <si>
     <t>Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DurationSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CycleSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E79B08-4E2A-4909-AFD0-8A046CEA2CED}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -768,22 +785,22 @@
         <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
-        <v>64</v>
-      </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -821,22 +838,22 @@
         <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -874,22 +891,22 @@
         <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O3" t="s">
         <v>11</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -995,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1048,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1133,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1178,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1187,7 +1204,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1200,7 +1217,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -1219,6 +1236,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E05F3F2-7744-4411-A5FD-1244D0D52B08}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED808B7-D0D6-4ACE-88B7-129DEFDF7E82}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1327,12 +1464,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3499CA7-C0C0-49AE-B576-80FEEDB8A9A2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1388,12 +1525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220ED6E0-30BD-4D56-950C-986B1C9E2B09}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1406,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1427,10 +1564,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1438,7 +1575,7 @@
         <v>51</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,7 +1583,7 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>10000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1454,47 +1591,47 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>5000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>5000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
-        <v>5000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>5000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11">
-        <v>5000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>5000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1502,7 +1639,7 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>3000</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/table/Unit.xlsx
+++ b/table/Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F9247-8CD6-4304-8F85-366B58E3E2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC116A-4E81-465F-9003-0C2697B30DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
+    <workbookView xWindow="13395" yWindow="4320" windowWidth="10770" windowHeight="11280" activeTab="2" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>8</v>
